--- a/src/test/testResources/excels/test.xlsx
+++ b/src/test/testResources/excels/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreyserebryanskiy/IdeaProjects/badgeGenerator/src/test/testResources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreyserebryanskiy/IdeaProjects/badgeGenerator/src/test/testResources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,40 +32,40 @@
     <t>Фамилия</t>
   </si>
   <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>Георгиевский</t>
+  </si>
+  <si>
+    <t>Предприниматель</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t>Белобородский</t>
+  </si>
+  <si>
+    <t>Заместитель главы правления по вопросам транспорта</t>
+  </si>
+  <si>
+    <t>Кирилл</t>
+  </si>
+  <si>
+    <t>Беловодов</t>
+  </si>
+  <si>
+    <t>Младший ассистент главного архитектора</t>
+  </si>
+  <si>
+    <t>Максим</t>
+  </si>
+  <si>
+    <t>Сергеев</t>
+  </si>
+  <si>
     <t>Должность</t>
-  </si>
-  <si>
-    <t>Андрей</t>
-  </si>
-  <si>
-    <t>Георгиевский</t>
-  </si>
-  <si>
-    <t>Предприниматель</t>
-  </si>
-  <si>
-    <t>Сергей</t>
-  </si>
-  <si>
-    <t>Белобородский</t>
-  </si>
-  <si>
-    <t>Заместитель главы правления по вопросам транспорта</t>
-  </si>
-  <si>
-    <t>Кирилл</t>
-  </si>
-  <si>
-    <t>Беловодов</t>
-  </si>
-  <si>
-    <t>Младший ассистент главного архитектора</t>
-  </si>
-  <si>
-    <t>Максим</t>
-  </si>
-  <si>
-    <t>Сергеев</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -396,48 +396,48 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
